--- a/Stagiaires/Mariam Ait Al.xlsx
+++ b/Stagiaires/Mariam Ait Al.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Tâche</t>
   </si>
@@ -22,39 +22,6 @@
     <t>Date début</t>
   </si>
   <si>
-    <t>Réalisation du prototype</t>
-  </si>
-  <si>
-    <t>TP1_PFA</t>
-  </si>
-  <si>
-    <t>TP2_PFA</t>
-  </si>
-  <si>
-    <t>TP3_PFA</t>
-  </si>
-  <si>
-    <t>TP4_PFA</t>
-  </si>
-  <si>
-    <t>TP5_PFA</t>
-  </si>
-  <si>
-    <t>TP6_PFA Gwin Library</t>
-  </si>
-  <si>
-    <t>TP7_PFA Gwin Library</t>
-  </si>
-  <si>
-    <t>Démonstration TP5_PFA</t>
-  </si>
-  <si>
-    <t>Démonstration du Exemple 1 GwinApp</t>
-  </si>
-  <si>
-    <t>Démonstration du Exemple 2 GwinApp</t>
-  </si>
-  <si>
     <t>Rapport</t>
   </si>
   <si>
@@ -83,9 +50,6 @@
   </si>
   <si>
     <t>Interface de mise à jour avec TabPanel</t>
-  </si>
-  <si>
-    <t>Interface de mise à jour des groupe</t>
   </si>
   <si>
     <t>Interface de mise à jour des stagiaires, Groupes, Formateur, Module</t>
@@ -103,7 +67,109 @@
     <t>Date Fin</t>
   </si>
   <si>
-    <t>Diagramme de classe -Club Management -</t>
+    <t>Interface de mise à jour des groupes</t>
+  </si>
+  <si>
+    <t>TP1_Linq</t>
+  </si>
+  <si>
+    <t>TP2_CRUD_EF_One_Classe</t>
+  </si>
+  <si>
+    <t>TP3_Migration_EF</t>
+  </si>
+  <si>
+    <t>TP4_RelationShip_EF</t>
+  </si>
+  <si>
+    <t>TP5_CRUD_EF_All_RelationShip</t>
+  </si>
+  <si>
+    <t>TP 5.1 - Insert Image with EF</t>
+  </si>
+  <si>
+    <t>TP6_Gwin_One_Classe</t>
+  </si>
+  <si>
+    <t>TP7_Gwin_Many_To_One</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_One_Classe</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_Many_To_One</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_Many_To_Many</t>
+  </si>
+  <si>
+    <t>TP8_Gwin_All_Relation_Ship</t>
+  </si>
+  <si>
+    <t>Rapport Version 2</t>
+  </si>
+  <si>
+    <t>Test unitaire d'une EntityBLO</t>
+  </si>
+  <si>
+    <t>Auto-Formation sur GitHub pour Fork et PulRequest ( Optionnelle)</t>
+  </si>
+  <si>
+    <t>Demonstration - Intégration avec GitHub</t>
+  </si>
+  <si>
+    <t>Diagramme de context</t>
+  </si>
+  <si>
+    <t>Diagramme de cas d'utilisation et Arabe ou en français</t>
+  </si>
+  <si>
+    <t>Dictionnaire de données</t>
+  </si>
+  <si>
+    <t>Traudction de dictionnaire de données</t>
+  </si>
+  <si>
+    <t>Diagramme de classe  en Anglais</t>
+  </si>
+  <si>
+    <t>Partage des tâches - chaque tâche contient 
+- Mini Diagramme de cas d'utilisation
+- Dictionnaire de données pour chaque classe 
+- Diagramme de classes à implémenter</t>
+  </si>
+  <si>
+    <t>Implémentation des classe C# avec fichiers ressources</t>
+  </si>
+  <si>
+    <t>Implémentation des classe BLO</t>
+  </si>
+  <si>
+    <t>Implémentation des Test unitaire de BLO</t>
+  </si>
+  <si>
+    <t>Validation et Intégration sur GitHub</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Club management system</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Caputre des besoin</t>
+  </si>
+  <si>
+    <t>Analyse fonctionelle</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Réalisation</t>
   </si>
 </sst>
 </file>
@@ -139,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -147,11 +213,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -164,7 +236,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -180,11 +258,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau_Taches" displayName="Tableau_Taches" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau_Taches" displayName="Tableau_Taches" ref="A1:F28" totalsRowShown="0">
+  <autoFilter ref="A1:F28"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Etape de modélisation"/>
-    <tableColumn id="2" name="Projet"/>
+    <tableColumn id="1" name="Etape de modélisation" dataDxfId="5"/>
+    <tableColumn id="2" name="Projet" dataDxfId="4"/>
     <tableColumn id="3" name="Tâche" dataDxfId="3"/>
     <tableColumn id="4" name="Description" dataDxfId="2"/>
     <tableColumn id="5" name="Date début" dataDxfId="1"/>
@@ -481,94 +559,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42806</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42793</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2">
-        <v>42781</v>
-      </c>
-      <c r="F2" s="2">
-        <v>42781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42781</v>
-      </c>
-      <c r="F3" s="2">
-        <v>42782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>42793</v>
@@ -578,57 +656,57 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42793</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>42821</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2">
-        <v>42794</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>42822</v>
-      </c>
-      <c r="F6" s="2">
-        <v>42795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>42798</v>
@@ -638,59 +716,68 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>42809</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2">
+        <v>41335</v>
+      </c>
+      <c r="F9" s="2">
+        <v>41335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2">
-        <v>42799</v>
-      </c>
-      <c r="F8" s="2">
-        <v>42801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="2">
-        <v>42802</v>
+        <v>42797</v>
       </c>
       <c r="F10" s="2">
-        <v>42802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="2">
         <v>42802</v>
@@ -700,22 +787,246 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>42802</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2">
+        <v>42802</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
+        <v>42802</v>
+      </c>
+      <c r="F14" s="2">
+        <v>42802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2">
+        <v>42808</v>
+      </c>
+      <c r="F15" s="2">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2">
+        <v>42807</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2">
+        <v>42808</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2">
+        <v>42809</v>
+      </c>
+      <c r="F23" s="2">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2">
+        <v>42802</v>
+      </c>
+      <c r="F25" s="2">
         <v>42803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Stagiaires/Mariam Ait Al.xlsx
+++ b/Stagiaires/Mariam Ait Al.xlsx
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>42809</v>
       </c>
       <c r="F17" s="2">
-        <v>42811</v>
+        <v>42809</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1027,6 +1027,12 @@
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="E28" s="2">
+        <v>42809</v>
+      </c>
+      <c r="F28" s="2">
+        <v>42809</v>
       </c>
     </row>
   </sheetData>
